--- a/quizz.xlsx
+++ b/quizz.xlsx
@@ -5,26 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\python\quizz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\python\quizz scanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>questions</t>
   </si>
   <si>
-    <t>prop 1</t>
+    <t>prop1</t>
   </si>
   <si>
     <t>prop2</t>
@@ -39,7 +39,34 @@
     <t>correct</t>
   </si>
   <si>
-    <t>q2</t>
+    <t>quel est le type de la variable C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entier </t>
+  </si>
+  <si>
+    <t>chaine de caractere</t>
+  </si>
+  <si>
+    <t>booléen</t>
+  </si>
+  <si>
+    <t>aucun des trois</t>
+  </si>
+  <si>
+    <t>citer les 5 types de bases</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p4</t>
   </si>
   <si>
     <t>q3</t>
@@ -55,58 +82,49 @@
   </si>
   <si>
     <t>q7</t>
-  </si>
-  <si>
-    <t>q9</t>
-  </si>
-  <si>
-    <t>q10</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>p4</t>
-  </si>
-  <si>
-    <t>quel est le type de la variable C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entier </t>
-  </si>
-  <si>
-    <t>chaine de caractere</t>
-  </si>
-  <si>
-    <t>booléen</t>
-  </si>
-  <si>
-    <t>aucun des trois</t>
   </si>
   <si>
     <t xml:space="preserve">n = int(input(‘donner n’))
 for i in range(1,11):
     print(i,’ * ‘,n,’ = ‘, i*n)
 </t>
+  </si>
+  <si>
+    <t>q10</t>
+  </si>
+  <si>
+    <t>choisir l'instruction correcte permettant de saisir une valeu de type entier</t>
+  </si>
+  <si>
+    <t>n=float(input(''donner un entier''))</t>
+  </si>
+  <si>
+    <t>aucune des trois</t>
+  </si>
+  <si>
+    <t>n=input(''donner un entier'')</t>
+  </si>
+  <si>
+    <t>n=int(input(''donner un entier''))
+n=int(input("donner une chaîne"))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,12 +143,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -439,53 +475,53 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="67.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -493,19 +529,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -513,39 +549,39 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
       <c r="F4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -553,19 +589,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -573,19 +609,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -593,79 +629,79 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9">
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10">
         <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
       </c>
       <c r="F11">
         <v>2</v>

--- a/quizz.xlsx
+++ b/quizz.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>questions</t>
   </si>
@@ -39,9 +39,6 @@
     <t>correct</t>
   </si>
   <si>
-    <t>quel est le type de la variable C</t>
-  </si>
-  <si>
     <t xml:space="preserve">entier </t>
   </si>
   <si>
@@ -54,59 +51,104 @@
     <t>aucun des trois</t>
   </si>
   <si>
-    <t>citer les 5 types de bases</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>p4</t>
-  </si>
-  <si>
-    <t>q3</t>
-  </si>
-  <si>
-    <t>q4</t>
-  </si>
-  <si>
-    <t>q5</t>
-  </si>
-  <si>
-    <t>q6</t>
-  </si>
-  <si>
-    <t>q7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n = int(input(‘donner n’))
-for i in range(1,11):
-    print(i,’ * ‘,n,’ = ‘, i*n)
+    <t>choisir l'instruction correcte permettant de saisir une valeu de type entier</t>
+  </si>
+  <si>
+    <t>n=float(input(''donner un entier''))</t>
+  </si>
+  <si>
+    <t>aucune des trois</t>
+  </si>
+  <si>
+    <t>n=input(''donner un entier'')</t>
+  </si>
+  <si>
+    <t>n=int(input(''donner un entier''))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quel est le type de c dans le code suivant?
+c = input(''donner une valeur'') 
 </t>
   </si>
   <si>
-    <t>q10</t>
-  </si>
-  <si>
-    <t>choisir l'instruction correcte permettant de saisir une valeu de type entier</t>
-  </si>
-  <si>
-    <t>n=float(input(''donner un entier''))</t>
-  </si>
-  <si>
-    <t>aucune des trois</t>
-  </si>
-  <si>
-    <t>n=input(''donner un entier'')</t>
-  </si>
-  <si>
-    <t>n=int(input(''donner un entier''))
-n=int(input("donner une chaîne"))</t>
+    <t>vrai</t>
+  </si>
+  <si>
+    <t>faux</t>
+  </si>
+  <si>
+    <t>for i in range(1,50):
+           print(i)
+le nombre de répétitions de print(i) est égal à :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for i in range(1,50):
+           print(i)
+la variable i aura comme valeur finale :
+</t>
+  </si>
+  <si>
+    <t>la valeur de l'expression:
+max(2,9,5) ==5</t>
+  </si>
+  <si>
+    <t>m = max(x,y)</t>
+  </si>
+  <si>
+    <t>m = x
+if (y &lt; m ):
+     m=y
+ce code est équivalent à :</t>
+  </si>
+  <si>
+    <t>m=x&gt;y</t>
+  </si>
+  <si>
+    <t>m = min(x,y)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x = x + 1 est une </t>
+  </si>
+  <si>
+    <t>opération d'écriture</t>
+  </si>
+  <si>
+    <t>opération de lecture</t>
+  </si>
+  <si>
+    <t>affectation</t>
+  </si>
+  <si>
+    <t>"aBc".isalpha()  est égal à</t>
+  </si>
+  <si>
+    <t>le nombre de caractères de ch</t>
+  </si>
+  <si>
+    <t>le nombre de "*" dans ch</t>
+  </si>
+  <si>
+    <t>le nombre de"+" dans ch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la condition dans si  doit être </t>
+  </si>
+  <si>
+    <t>une expression arithmétique</t>
+  </si>
+  <si>
+    <t>une instruction d'affectation</t>
+  </si>
+  <si>
+    <t>une expression logique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n = 0
+for i in range(0,len(ch)-1):
+      if ch[i] == " ":
+                n = n + 1
+ce code permet d'obtenir dans n 
+</t>
   </si>
 </sst>
 </file>
@@ -162,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -170,6 +212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,16 +518,16 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="58.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -507,101 +550,101 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3">
+        <v>51</v>
+      </c>
+      <c r="E3" s="3">
+        <v>48</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>49</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>51</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -609,19 +652,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -629,59 +672,59 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
+    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
       </c>
       <c r="F9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -689,19 +732,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F11">
         <v>2</v>

--- a/quizz.xlsx
+++ b/quizz.xlsx
@@ -51,9 +51,6 @@
     <t>aucun des trois</t>
   </si>
   <si>
-    <t>choisir l'instruction correcte permettant de saisir une valeu de type entier</t>
-  </si>
-  <si>
     <t>n=float(input(''donner un entier''))</t>
   </si>
   <si>
@@ -149,6 +146,9 @@
                 n = n + 1
 ce code permet d'obtenir dans n 
 </t>
+  </si>
+  <si>
+    <t>choisir l'instruction correcte permettant de saisir une valeur de type entier</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +552,7 @@
     </row>
     <row r="2" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="3" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3">
         <v>49</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3">
         <v>9</v>
@@ -601,10 +601,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="5" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3">
         <v>48</v>
@@ -627,55 +627,55 @@
         <v>51</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -692,19 +692,19 @@
     </row>
     <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -712,19 +712,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -732,22 +732,22 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
